--- a/experiment/jsp/my_result_80.xlsx
+++ b/experiment/jsp/my_result_80.xlsx
@@ -467,19 +467,19 @@
         <v>502</v>
       </c>
       <c r="G2">
-        <v>504</v>
+        <v>348</v>
       </c>
       <c r="H2">
-        <v>574</v>
+        <v>469</v>
       </c>
       <c r="I2">
-        <v>751</v>
+        <v>229</v>
       </c>
       <c r="J2">
-        <v>885</v>
+        <v>422</v>
       </c>
       <c r="K2">
-        <v>751</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -502,19 +502,19 @@
         <v>910</v>
       </c>
       <c r="G3">
-        <v>571</v>
+        <v>590</v>
       </c>
       <c r="H3">
-        <v>692</v>
+        <v>514</v>
       </c>
       <c r="I3">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="J3">
-        <v>731</v>
+        <v>679</v>
       </c>
       <c r="K3">
-        <v>644</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -537,19 +537,19 @@
         <v>418</v>
       </c>
       <c r="G4">
-        <v>654</v>
+        <v>62</v>
       </c>
       <c r="H4">
-        <v>443</v>
+        <v>46</v>
       </c>
       <c r="I4">
-        <v>320</v>
+        <v>34</v>
       </c>
       <c r="J4">
-        <v>915</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>320</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -572,19 +572,19 @@
         <v>1893</v>
       </c>
       <c r="G5">
-        <v>796</v>
+        <v>1374</v>
       </c>
       <c r="H5">
-        <v>800</v>
+        <v>1518</v>
       </c>
       <c r="I5">
-        <v>554</v>
+        <v>1577</v>
       </c>
       <c r="J5">
-        <v>512</v>
+        <v>1369</v>
       </c>
       <c r="K5">
-        <v>554</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -607,19 +607,19 @@
         <v>1442</v>
       </c>
       <c r="G6">
-        <v>387</v>
+        <v>1231</v>
       </c>
       <c r="H6">
-        <v>371</v>
+        <v>1672</v>
       </c>
       <c r="I6">
-        <v>371</v>
+        <v>1560</v>
       </c>
       <c r="J6">
-        <v>319</v>
+        <v>1715</v>
       </c>
       <c r="K6">
-        <v>371</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -642,19 +642,19 @@
         <v>640</v>
       </c>
       <c r="G7">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="H7">
-        <v>261</v>
+        <v>325</v>
       </c>
       <c r="I7">
-        <v>429</v>
+        <v>188</v>
       </c>
       <c r="J7">
-        <v>402</v>
+        <v>312</v>
       </c>
       <c r="K7">
-        <v>429</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -677,19 +677,19 @@
         <v>628</v>
       </c>
       <c r="G8">
-        <v>940</v>
+        <v>559</v>
       </c>
       <c r="H8">
-        <v>614</v>
+        <v>484</v>
       </c>
       <c r="I8">
-        <v>646</v>
+        <v>594</v>
       </c>
       <c r="J8">
-        <v>942</v>
+        <v>631</v>
       </c>
       <c r="K8">
-        <v>646</v>
+        <v>594</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -712,19 +712,19 @@
         <v>1365</v>
       </c>
       <c r="G9">
-        <v>506</v>
+        <v>846</v>
       </c>
       <c r="H9">
-        <v>691</v>
+        <v>715</v>
       </c>
       <c r="I9">
-        <v>597</v>
+        <v>727</v>
       </c>
       <c r="J9">
-        <v>621</v>
+        <v>749</v>
       </c>
       <c r="K9">
-        <v>597</v>
+        <v>727</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -747,19 +747,19 @@
         <v>427</v>
       </c>
       <c r="G10">
-        <v>2604</v>
+        <v>279</v>
       </c>
       <c r="H10">
-        <v>2027</v>
+        <v>401</v>
       </c>
       <c r="I10">
-        <v>2436</v>
+        <v>295</v>
       </c>
       <c r="J10">
-        <v>2668</v>
+        <v>231</v>
       </c>
       <c r="K10">
-        <v>2436</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -782,19 +782,19 @@
         <v>713</v>
       </c>
       <c r="G11">
-        <v>545</v>
+        <v>564</v>
       </c>
       <c r="H11">
-        <v>455</v>
+        <v>362</v>
       </c>
       <c r="I11">
-        <v>354</v>
+        <v>583</v>
       </c>
       <c r="J11">
-        <v>515</v>
+        <v>432</v>
       </c>
       <c r="K11">
-        <v>354</v>
+        <v>583</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -817,19 +817,19 @@
         <v>357</v>
       </c>
       <c r="G12">
-        <v>539</v>
+        <v>306</v>
       </c>
       <c r="H12">
-        <v>1068</v>
+        <v>328</v>
       </c>
       <c r="I12">
-        <v>1104</v>
+        <v>248</v>
       </c>
       <c r="J12">
-        <v>1188</v>
+        <v>266</v>
       </c>
       <c r="K12">
-        <v>1104</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -852,19 +852,19 @@
         <v>1115</v>
       </c>
       <c r="G13">
-        <v>351</v>
+        <v>1544</v>
       </c>
       <c r="H13">
-        <v>310</v>
+        <v>1519</v>
       </c>
       <c r="I13">
-        <v>362</v>
+        <v>1164</v>
       </c>
       <c r="J13">
-        <v>491</v>
+        <v>1828</v>
       </c>
       <c r="K13">
-        <v>362</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -887,19 +887,19 @@
         <v>408</v>
       </c>
       <c r="G14">
-        <v>2287</v>
+        <v>186</v>
       </c>
       <c r="H14">
-        <v>2224</v>
+        <v>194</v>
       </c>
       <c r="I14">
-        <v>2450</v>
+        <v>115</v>
       </c>
       <c r="J14">
-        <v>2504</v>
+        <v>218</v>
       </c>
       <c r="K14">
-        <v>2450</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -922,19 +922,19 @@
         <v>836</v>
       </c>
       <c r="G15">
-        <v>251</v>
+        <v>633</v>
       </c>
       <c r="H15">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="I15">
-        <v>210</v>
+        <v>506</v>
       </c>
       <c r="J15">
-        <v>283</v>
+        <v>771</v>
       </c>
       <c r="K15">
-        <v>210</v>
+        <v>506</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -957,19 +957,19 @@
         <v>1114</v>
       </c>
       <c r="G16">
-        <v>758</v>
+        <v>458</v>
       </c>
       <c r="H16">
-        <v>421</v>
+        <v>319</v>
       </c>
       <c r="I16">
-        <v>424</v>
+        <v>540</v>
       </c>
       <c r="J16">
-        <v>531</v>
+        <v>614</v>
       </c>
       <c r="K16">
-        <v>424</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -992,19 +992,19 @@
         <v>1399</v>
       </c>
       <c r="G17">
-        <v>1389</v>
+        <v>934</v>
       </c>
       <c r="H17">
-        <v>1973</v>
+        <v>1172</v>
       </c>
       <c r="I17">
-        <v>1310</v>
+        <v>851</v>
       </c>
       <c r="J17">
-        <v>1251</v>
+        <v>1046</v>
       </c>
       <c r="K17">
-        <v>1310</v>
+        <v>851</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1027,19 +1027,19 @@
         <v>1893</v>
       </c>
       <c r="G18">
-        <v>2083</v>
+        <v>1383</v>
       </c>
       <c r="H18">
-        <v>2080</v>
+        <v>1106</v>
       </c>
       <c r="I18">
-        <v>2181</v>
+        <v>1189</v>
       </c>
       <c r="J18">
-        <v>2453</v>
+        <v>1365</v>
       </c>
       <c r="K18">
-        <v>2181</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1062,19 +1062,19 @@
         <v>2352</v>
       </c>
       <c r="G19">
-        <v>495</v>
+        <v>2309</v>
       </c>
       <c r="H19">
-        <v>369</v>
+        <v>2385</v>
       </c>
       <c r="I19">
-        <v>664</v>
+        <v>2503</v>
       </c>
       <c r="J19">
-        <v>784</v>
+        <v>3283</v>
       </c>
       <c r="K19">
-        <v>664</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1097,19 +1097,19 @@
         <v>617</v>
       </c>
       <c r="G20">
-        <v>587</v>
+        <v>124</v>
       </c>
       <c r="H20">
-        <v>637</v>
+        <v>90</v>
       </c>
       <c r="I20">
-        <v>654</v>
+        <v>71</v>
       </c>
       <c r="J20">
-        <v>633</v>
+        <v>95</v>
       </c>
       <c r="K20">
-        <v>654</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1132,19 +1132,19 @@
         <v>1390</v>
       </c>
       <c r="G21">
-        <v>954</v>
+        <v>1451</v>
       </c>
       <c r="H21">
-        <v>962</v>
+        <v>1498</v>
       </c>
       <c r="I21">
-        <v>971</v>
+        <v>1771</v>
       </c>
       <c r="J21">
-        <v>1285</v>
+        <v>1489</v>
       </c>
       <c r="K21">
-        <v>971</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1167,19 +1167,19 @@
         <v>1120</v>
       </c>
       <c r="G22">
-        <v>1712</v>
+        <v>812</v>
       </c>
       <c r="H22">
-        <v>2153</v>
+        <v>587</v>
       </c>
       <c r="I22">
-        <v>1846</v>
+        <v>613</v>
       </c>
       <c r="J22">
-        <v>1990</v>
+        <v>848</v>
       </c>
       <c r="K22">
-        <v>1846</v>
+        <v>613</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1202,19 +1202,19 @@
         <v>2273</v>
       </c>
       <c r="G23">
-        <v>642</v>
+        <v>1881</v>
       </c>
       <c r="H23">
-        <v>326</v>
+        <v>1918</v>
       </c>
       <c r="I23">
-        <v>304</v>
+        <v>1713</v>
       </c>
       <c r="J23">
-        <v>609</v>
+        <v>1814</v>
       </c>
       <c r="K23">
-        <v>304</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1237,19 +1237,19 @@
         <v>357</v>
       </c>
       <c r="G24">
-        <v>973</v>
+        <v>448</v>
       </c>
       <c r="H24">
-        <v>1127</v>
+        <v>495</v>
       </c>
       <c r="I24">
-        <v>616</v>
+        <v>528</v>
       </c>
       <c r="J24">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="K24">
-        <v>616</v>
+        <v>528</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1272,19 +1272,19 @@
         <v>269</v>
       </c>
       <c r="G25">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="H25">
-        <v>369</v>
+        <v>248</v>
       </c>
       <c r="I25">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="J25">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="K25">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1307,19 +1307,19 @@
         <v>698</v>
       </c>
       <c r="G26">
-        <v>488</v>
+        <v>547</v>
       </c>
       <c r="H26">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="I26">
-        <v>562</v>
+        <v>481</v>
       </c>
       <c r="J26">
-        <v>435</v>
+        <v>569</v>
       </c>
       <c r="K26">
-        <v>562</v>
+        <v>481</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1342,19 +1342,19 @@
         <v>647</v>
       </c>
       <c r="G27">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H27">
-        <v>477</v>
+        <v>295</v>
       </c>
       <c r="I27">
-        <v>500</v>
+        <v>581</v>
       </c>
       <c r="J27">
-        <v>563</v>
+        <v>596</v>
       </c>
       <c r="K27">
-        <v>500</v>
+        <v>581</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1377,19 +1377,19 @@
         <v>430</v>
       </c>
       <c r="G28">
-        <v>660</v>
+        <v>701</v>
       </c>
       <c r="H28">
-        <v>1672</v>
+        <v>722</v>
       </c>
       <c r="I28">
-        <v>1035</v>
+        <v>813</v>
       </c>
       <c r="J28">
-        <v>1368</v>
+        <v>974</v>
       </c>
       <c r="K28">
-        <v>1035</v>
+        <v>813</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1412,19 +1412,19 @@
         <v>1818</v>
       </c>
       <c r="G29">
-        <v>1285</v>
+        <v>1347</v>
       </c>
       <c r="H29">
-        <v>1363</v>
+        <v>1295</v>
       </c>
       <c r="I29">
-        <v>1135</v>
+        <v>1536</v>
       </c>
       <c r="J29">
-        <v>1274</v>
+        <v>1886</v>
       </c>
       <c r="K29">
-        <v>1135</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1447,19 +1447,19 @@
         <v>2551</v>
       </c>
       <c r="G30">
-        <v>457</v>
+        <v>1776</v>
       </c>
       <c r="H30">
-        <v>361</v>
+        <v>1833</v>
       </c>
       <c r="I30">
-        <v>547</v>
+        <v>1865</v>
       </c>
       <c r="J30">
-        <v>438</v>
+        <v>1851</v>
       </c>
       <c r="K30">
-        <v>547</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1482,19 +1482,19 @@
         <v>986</v>
       </c>
       <c r="G31">
-        <v>693</v>
+        <v>483</v>
       </c>
       <c r="H31">
-        <v>837</v>
+        <v>257</v>
       </c>
       <c r="I31">
-        <v>978</v>
+        <v>141</v>
       </c>
       <c r="J31">
-        <v>693</v>
+        <v>330</v>
       </c>
       <c r="K31">
-        <v>978</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1517,19 +1517,19 @@
         <v>1375</v>
       </c>
       <c r="G32">
-        <v>1677</v>
+        <v>786</v>
       </c>
       <c r="H32">
-        <v>839</v>
+        <v>730</v>
       </c>
       <c r="I32">
-        <v>1173</v>
+        <v>751</v>
       </c>
       <c r="J32">
-        <v>1286</v>
+        <v>1015</v>
       </c>
       <c r="K32">
-        <v>1173</v>
+        <v>751</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1552,19 +1552,19 @@
         <v>1575</v>
       </c>
       <c r="G33">
-        <v>88</v>
+        <v>1718</v>
       </c>
       <c r="H33">
-        <v>97</v>
+        <v>1878</v>
       </c>
       <c r="I33">
-        <v>156</v>
+        <v>1937</v>
       </c>
       <c r="J33">
-        <v>96</v>
+        <v>2049</v>
       </c>
       <c r="K33">
-        <v>156</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1587,19 +1587,19 @@
         <v>1313</v>
       </c>
       <c r="G34">
-        <v>1219</v>
+        <v>1136</v>
       </c>
       <c r="H34">
-        <v>903</v>
+        <v>1608</v>
       </c>
       <c r="I34">
-        <v>800</v>
+        <v>1598</v>
       </c>
       <c r="J34">
-        <v>766</v>
+        <v>1449</v>
       </c>
       <c r="K34">
-        <v>800</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1622,19 +1622,19 @@
         <v>543</v>
       </c>
       <c r="G35">
-        <v>85</v>
+        <v>459</v>
       </c>
       <c r="H35">
-        <v>66</v>
+        <v>611</v>
       </c>
       <c r="I35">
-        <v>91</v>
+        <v>526</v>
       </c>
       <c r="J35">
-        <v>178</v>
+        <v>718</v>
       </c>
       <c r="K35">
-        <v>91</v>
+        <v>526</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1657,19 +1657,19 @@
         <v>1605</v>
       </c>
       <c r="G36">
-        <v>321</v>
+        <v>762</v>
       </c>
       <c r="H36">
-        <v>548</v>
+        <v>894</v>
       </c>
       <c r="I36">
-        <v>354</v>
+        <v>1479</v>
       </c>
       <c r="J36">
-        <v>644</v>
+        <v>1099</v>
       </c>
       <c r="K36">
-        <v>354</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1692,19 +1692,19 @@
         <v>448</v>
       </c>
       <c r="G37">
-        <v>1287</v>
+        <v>123</v>
       </c>
       <c r="H37">
-        <v>926</v>
+        <v>226</v>
       </c>
       <c r="I37">
-        <v>1043</v>
+        <v>409</v>
       </c>
       <c r="J37">
-        <v>1107</v>
+        <v>289</v>
       </c>
       <c r="K37">
-        <v>1043</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1727,19 +1727,19 @@
         <v>890</v>
       </c>
       <c r="G38">
-        <v>3102</v>
+        <v>654</v>
       </c>
       <c r="H38">
-        <v>2771</v>
+        <v>636</v>
       </c>
       <c r="I38">
-        <v>2846</v>
+        <v>494</v>
       </c>
       <c r="J38">
-        <v>3128</v>
+        <v>494</v>
       </c>
       <c r="K38">
-        <v>2846</v>
+        <v>494</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1762,19 +1762,19 @@
         <v>1565</v>
       </c>
       <c r="G39">
-        <v>1294</v>
+        <v>805</v>
       </c>
       <c r="H39">
-        <v>1200</v>
+        <v>863</v>
       </c>
       <c r="I39">
-        <v>1696</v>
+        <v>1776</v>
       </c>
       <c r="J39">
-        <v>1865</v>
+        <v>1312</v>
       </c>
       <c r="K39">
-        <v>1696</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1797,19 +1797,19 @@
         <v>908</v>
       </c>
       <c r="G40">
-        <v>375</v>
+        <v>830</v>
       </c>
       <c r="H40">
-        <v>324</v>
+        <v>915</v>
       </c>
       <c r="I40">
-        <v>334</v>
+        <v>831</v>
       </c>
       <c r="J40">
-        <v>464</v>
+        <v>1133</v>
       </c>
       <c r="K40">
-        <v>334</v>
+        <v>831</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1832,19 +1832,19 @@
         <v>2585</v>
       </c>
       <c r="G41">
-        <v>1234</v>
+        <v>1760</v>
       </c>
       <c r="H41">
-        <v>1146</v>
+        <v>1801</v>
       </c>
       <c r="I41">
-        <v>890</v>
+        <v>2184</v>
       </c>
       <c r="J41">
-        <v>1171</v>
+        <v>1942</v>
       </c>
       <c r="K41">
-        <v>890</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1867,19 +1867,19 @@
         <v>1034</v>
       </c>
       <c r="G42">
-        <v>744</v>
+        <v>403</v>
       </c>
       <c r="H42">
-        <v>562</v>
+        <v>368</v>
       </c>
       <c r="I42">
-        <v>962</v>
+        <v>361</v>
       </c>
       <c r="J42">
-        <v>838</v>
+        <v>425</v>
       </c>
       <c r="K42">
-        <v>962</v>
+        <v>361</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1902,19 +1902,19 @@
         <v>389</v>
       </c>
       <c r="G43">
-        <v>960</v>
+        <v>791</v>
       </c>
       <c r="H43">
-        <v>947</v>
+        <v>785</v>
       </c>
       <c r="I43">
-        <v>894</v>
+        <v>848</v>
       </c>
       <c r="J43">
-        <v>1025</v>
+        <v>910</v>
       </c>
       <c r="K43">
-        <v>894</v>
+        <v>848</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1937,19 +1937,19 @@
         <v>558</v>
       </c>
       <c r="G44">
-        <v>316</v>
+        <v>98</v>
       </c>
       <c r="H44">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="I44">
-        <v>391</v>
+        <v>129</v>
       </c>
       <c r="J44">
-        <v>628</v>
+        <v>303</v>
       </c>
       <c r="K44">
-        <v>391</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1972,19 +1972,19 @@
         <v>947</v>
       </c>
       <c r="G45">
-        <v>101</v>
+        <v>776</v>
       </c>
       <c r="H45">
-        <v>133</v>
+        <v>758</v>
       </c>
       <c r="I45">
-        <v>142</v>
+        <v>683</v>
       </c>
       <c r="J45">
-        <v>257</v>
+        <v>962</v>
       </c>
       <c r="K45">
-        <v>142</v>
+        <v>683</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2007,19 +2007,19 @@
         <v>188</v>
       </c>
       <c r="G46">
-        <v>2018</v>
+        <v>408</v>
       </c>
       <c r="H46">
-        <v>2391</v>
+        <v>469</v>
       </c>
       <c r="I46">
-        <v>2161</v>
+        <v>189</v>
       </c>
       <c r="J46">
-        <v>2121</v>
+        <v>296</v>
       </c>
       <c r="K46">
-        <v>2161</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2042,19 +2042,19 @@
         <v>978</v>
       </c>
       <c r="G47">
-        <v>267</v>
+        <v>858</v>
       </c>
       <c r="H47">
-        <v>287</v>
+        <v>896</v>
       </c>
       <c r="I47">
-        <v>247</v>
+        <v>411</v>
       </c>
       <c r="J47">
-        <v>379</v>
+        <v>671</v>
       </c>
       <c r="K47">
-        <v>247</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2077,19 +2077,19 @@
         <v>746</v>
       </c>
       <c r="G48">
-        <v>1063</v>
+        <v>787</v>
       </c>
       <c r="H48">
-        <v>489</v>
+        <v>697</v>
       </c>
       <c r="I48">
-        <v>561</v>
+        <v>847</v>
       </c>
       <c r="J48">
-        <v>1006</v>
+        <v>734</v>
       </c>
       <c r="K48">
-        <v>561</v>
+        <v>847</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2112,19 +2112,19 @@
         <v>195</v>
       </c>
       <c r="G49">
-        <v>2024</v>
+        <v>396</v>
       </c>
       <c r="H49">
-        <v>2705</v>
+        <v>266</v>
       </c>
       <c r="I49">
-        <v>2622</v>
+        <v>153</v>
       </c>
       <c r="J49">
-        <v>2810</v>
+        <v>186</v>
       </c>
       <c r="K49">
-        <v>2622</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2147,19 +2147,19 @@
         <v>301</v>
       </c>
       <c r="G50">
-        <v>1146</v>
+        <v>166</v>
       </c>
       <c r="H50">
-        <v>1292</v>
+        <v>113</v>
       </c>
       <c r="I50">
-        <v>1241</v>
+        <v>118</v>
       </c>
       <c r="J50">
-        <v>1581</v>
+        <v>80</v>
       </c>
       <c r="K50">
-        <v>1241</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2182,19 +2182,19 @@
         <v>4119</v>
       </c>
       <c r="G51">
-        <v>883</v>
+        <v>3884</v>
       </c>
       <c r="H51">
-        <v>829</v>
+        <v>4077</v>
       </c>
       <c r="I51">
-        <v>731</v>
+        <v>4039</v>
       </c>
       <c r="J51">
-        <v>1026</v>
+        <v>4669</v>
       </c>
       <c r="K51">
-        <v>731</v>
+        <v>4039</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2217,19 +2217,19 @@
         <v>424</v>
       </c>
       <c r="G52">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="H52">
-        <v>199</v>
+        <v>292</v>
       </c>
       <c r="I52">
-        <v>130</v>
+        <v>292</v>
       </c>
       <c r="J52">
-        <v>274</v>
+        <v>385</v>
       </c>
       <c r="K52">
-        <v>130</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2252,19 +2252,19 @@
         <v>852</v>
       </c>
       <c r="G53">
-        <v>642</v>
+        <v>1122</v>
       </c>
       <c r="H53">
-        <v>636</v>
+        <v>937</v>
       </c>
       <c r="I53">
-        <v>731</v>
+        <v>1059</v>
       </c>
       <c r="J53">
-        <v>737</v>
+        <v>943</v>
       </c>
       <c r="K53">
-        <v>731</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2287,19 +2287,19 @@
         <v>860</v>
       </c>
       <c r="G54">
-        <v>132</v>
+        <v>846</v>
       </c>
       <c r="H54">
-        <v>81</v>
+        <v>1039</v>
       </c>
       <c r="I54">
-        <v>82</v>
+        <v>532</v>
       </c>
       <c r="J54">
-        <v>73</v>
+        <v>699</v>
       </c>
       <c r="K54">
-        <v>82</v>
+        <v>532</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2322,19 +2322,19 @@
         <v>850</v>
       </c>
       <c r="G55">
-        <v>509</v>
+        <v>371</v>
       </c>
       <c r="H55">
-        <v>456</v>
+        <v>395</v>
       </c>
       <c r="I55">
-        <v>464</v>
+        <v>416</v>
       </c>
       <c r="J55">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="K55">
-        <v>464</v>
+        <v>416</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2357,19 +2357,19 @@
         <v>814</v>
       </c>
       <c r="G56">
-        <v>661</v>
+        <v>716</v>
       </c>
       <c r="H56">
-        <v>1026</v>
+        <v>745</v>
       </c>
       <c r="I56">
-        <v>735</v>
+        <v>601</v>
       </c>
       <c r="J56">
-        <v>1410</v>
+        <v>737</v>
       </c>
       <c r="K56">
-        <v>735</v>
+        <v>601</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2392,19 +2392,19 @@
         <v>866</v>
       </c>
       <c r="G57">
-        <v>1375</v>
+        <v>1030</v>
       </c>
       <c r="H57">
-        <v>1018</v>
+        <v>820</v>
       </c>
       <c r="I57">
-        <v>889</v>
+        <v>770</v>
       </c>
       <c r="J57">
-        <v>1371</v>
+        <v>496</v>
       </c>
       <c r="K57">
-        <v>889</v>
+        <v>770</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2427,19 +2427,19 @@
         <v>1313</v>
       </c>
       <c r="G58">
-        <v>1362</v>
+        <v>1755</v>
       </c>
       <c r="H58">
-        <v>1141</v>
+        <v>1514</v>
       </c>
       <c r="I58">
-        <v>965</v>
+        <v>1946</v>
       </c>
       <c r="J58">
-        <v>1239</v>
+        <v>1578</v>
       </c>
       <c r="K58">
-        <v>965</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2462,19 +2462,19 @@
         <v>1197</v>
       </c>
       <c r="G59">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="H59">
-        <v>564</v>
+        <v>490</v>
       </c>
       <c r="I59">
-        <v>455</v>
+        <v>773</v>
       </c>
       <c r="J59">
-        <v>813</v>
+        <v>909</v>
       </c>
       <c r="K59">
-        <v>455</v>
+        <v>773</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2497,19 +2497,19 @@
         <v>1222</v>
       </c>
       <c r="G60">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="H60">
-        <v>763</v>
+        <v>1370</v>
       </c>
       <c r="I60">
-        <v>581</v>
+        <v>955</v>
       </c>
       <c r="J60">
-        <v>1190</v>
+        <v>1055</v>
       </c>
       <c r="K60">
-        <v>581</v>
+        <v>955</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2532,19 +2532,19 @@
         <v>1420</v>
       </c>
       <c r="G61">
-        <v>632</v>
+        <v>1165</v>
       </c>
       <c r="H61">
-        <v>379</v>
+        <v>1365</v>
       </c>
       <c r="I61">
-        <v>386</v>
+        <v>1300</v>
       </c>
       <c r="J61">
-        <v>465</v>
+        <v>1347</v>
       </c>
       <c r="K61">
-        <v>386</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2567,19 +2567,19 @@
         <v>1011</v>
       </c>
       <c r="G62">
-        <v>609</v>
+        <v>374</v>
       </c>
       <c r="H62">
-        <v>484</v>
+        <v>251</v>
       </c>
       <c r="I62">
-        <v>588</v>
+        <v>307</v>
       </c>
       <c r="J62">
-        <v>720</v>
+        <v>546</v>
       </c>
       <c r="K62">
-        <v>588</v>
+        <v>307</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2602,19 +2602,19 @@
         <v>2620</v>
       </c>
       <c r="G63">
-        <v>1618</v>
+        <v>2435</v>
       </c>
       <c r="H63">
-        <v>2184</v>
+        <v>2444</v>
       </c>
       <c r="I63">
-        <v>1902</v>
+        <v>2736</v>
       </c>
       <c r="J63">
-        <v>1992</v>
+        <v>2785</v>
       </c>
       <c r="K63">
-        <v>1902</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2637,19 +2637,19 @@
         <v>738</v>
       </c>
       <c r="G64">
-        <v>956</v>
+        <v>376</v>
       </c>
       <c r="H64">
-        <v>1210</v>
+        <v>309</v>
       </c>
       <c r="I64">
-        <v>834</v>
+        <v>294</v>
       </c>
       <c r="J64">
-        <v>600</v>
+        <v>281</v>
       </c>
       <c r="K64">
-        <v>834</v>
+        <v>294</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2672,19 +2672,19 @@
         <v>649</v>
       </c>
       <c r="G65">
-        <v>1028</v>
+        <v>449</v>
       </c>
       <c r="H65">
-        <v>948</v>
+        <v>635</v>
       </c>
       <c r="I65">
-        <v>974</v>
+        <v>607</v>
       </c>
       <c r="J65">
-        <v>820</v>
+        <v>725</v>
       </c>
       <c r="K65">
-        <v>974</v>
+        <v>607</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2707,19 +2707,19 @@
         <v>821</v>
       </c>
       <c r="G66">
-        <v>1043</v>
+        <v>480</v>
       </c>
       <c r="H66">
-        <v>856</v>
+        <v>688</v>
       </c>
       <c r="I66">
-        <v>983</v>
+        <v>829</v>
       </c>
       <c r="J66">
-        <v>723</v>
+        <v>902</v>
       </c>
       <c r="K66">
-        <v>983</v>
+        <v>829</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2742,19 +2742,19 @@
         <v>837</v>
       </c>
       <c r="G67">
-        <v>206</v>
+        <v>332</v>
       </c>
       <c r="H67">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I67">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="J67">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="K67">
-        <v>335</v>
+        <v>348</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2777,19 +2777,19 @@
         <v>3074</v>
       </c>
       <c r="G68">
-        <v>189</v>
+        <v>1679</v>
       </c>
       <c r="H68">
-        <v>85</v>
+        <v>2383</v>
       </c>
       <c r="I68">
-        <v>33</v>
+        <v>1982</v>
       </c>
       <c r="J68">
-        <v>153</v>
+        <v>2263</v>
       </c>
       <c r="K68">
-        <v>33</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2812,19 +2812,19 @@
         <v>922</v>
       </c>
       <c r="G69">
-        <v>943</v>
+        <v>1229</v>
       </c>
       <c r="H69">
-        <v>1177</v>
+        <v>1273</v>
       </c>
       <c r="I69">
-        <v>1164</v>
+        <v>1300</v>
       </c>
       <c r="J69">
-        <v>1193</v>
+        <v>1447</v>
       </c>
       <c r="K69">
-        <v>1164</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2847,19 +2847,19 @@
         <v>1666</v>
       </c>
       <c r="G70">
-        <v>1781</v>
+        <v>1392</v>
       </c>
       <c r="H70">
-        <v>2300</v>
+        <v>1611</v>
       </c>
       <c r="I70">
-        <v>2332</v>
+        <v>2123</v>
       </c>
       <c r="J70">
-        <v>1991</v>
+        <v>2210</v>
       </c>
       <c r="K70">
-        <v>2332</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2882,19 +2882,19 @@
         <v>294</v>
       </c>
       <c r="G71">
-        <v>344</v>
+        <v>495</v>
       </c>
       <c r="H71">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="I71">
-        <v>321</v>
+        <v>234</v>
       </c>
       <c r="J71">
-        <v>429</v>
+        <v>165</v>
       </c>
       <c r="K71">
-        <v>321</v>
+        <v>234</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2917,19 +2917,19 @@
         <v>380</v>
       </c>
       <c r="G72">
-        <v>773</v>
+        <v>68</v>
       </c>
       <c r="H72">
-        <v>417</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>431</v>
+        <v>47</v>
       </c>
       <c r="J72">
-        <v>467</v>
+        <v>81</v>
       </c>
       <c r="K72">
-        <v>431</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2952,19 +2952,19 @@
         <v>880</v>
       </c>
       <c r="G73">
-        <v>961</v>
+        <v>627</v>
       </c>
       <c r="H73">
-        <v>705</v>
+        <v>604</v>
       </c>
       <c r="I73">
-        <v>1197</v>
+        <v>600</v>
       </c>
       <c r="J73">
-        <v>1185</v>
+        <v>1092</v>
       </c>
       <c r="K73">
-        <v>1197</v>
+        <v>600</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2987,19 +2987,19 @@
         <v>332</v>
       </c>
       <c r="G74">
-        <v>1198</v>
+        <v>154</v>
       </c>
       <c r="H74">
-        <v>836</v>
+        <v>204</v>
       </c>
       <c r="I74">
-        <v>1052</v>
+        <v>216</v>
       </c>
       <c r="J74">
-        <v>976</v>
+        <v>253</v>
       </c>
       <c r="K74">
-        <v>1052</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3022,19 +3022,19 @@
         <v>1743</v>
       </c>
       <c r="G75">
-        <v>794</v>
+        <v>883</v>
       </c>
       <c r="H75">
-        <v>940</v>
+        <v>742</v>
       </c>
       <c r="I75">
-        <v>795</v>
+        <v>562</v>
       </c>
       <c r="J75">
-        <v>782</v>
+        <v>1015</v>
       </c>
       <c r="K75">
-        <v>795</v>
+        <v>562</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3057,19 +3057,19 @@
         <v>1416</v>
       </c>
       <c r="G76">
-        <v>488</v>
+        <v>1155</v>
       </c>
       <c r="H76">
-        <v>501</v>
+        <v>1565</v>
       </c>
       <c r="I76">
-        <v>420</v>
+        <v>1345</v>
       </c>
       <c r="J76">
-        <v>571</v>
+        <v>1322</v>
       </c>
       <c r="K76">
-        <v>420</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3092,19 +3092,19 @@
         <v>2025</v>
       </c>
       <c r="G77">
-        <v>1007</v>
+        <v>2137</v>
       </c>
       <c r="H77">
-        <v>1042</v>
+        <v>2015</v>
       </c>
       <c r="I77">
-        <v>735</v>
+        <v>2197</v>
       </c>
       <c r="J77">
-        <v>1148</v>
+        <v>2026</v>
       </c>
       <c r="K77">
-        <v>735</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3127,19 +3127,19 @@
         <v>348</v>
       </c>
       <c r="G78">
-        <v>230</v>
+        <v>390</v>
       </c>
       <c r="H78">
-        <v>85</v>
+        <v>293</v>
       </c>
       <c r="I78">
-        <v>142</v>
+        <v>559</v>
       </c>
       <c r="J78">
-        <v>310</v>
+        <v>595</v>
       </c>
       <c r="K78">
-        <v>142</v>
+        <v>559</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3162,19 +3162,19 @@
         <v>627</v>
       </c>
       <c r="G79">
-        <v>473</v>
+        <v>400</v>
       </c>
       <c r="H79">
-        <v>368</v>
+        <v>461</v>
       </c>
       <c r="I79">
-        <v>260</v>
+        <v>435</v>
       </c>
       <c r="J79">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="K79">
-        <v>260</v>
+        <v>435</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3197,19 +3197,19 @@
         <v>866</v>
       </c>
       <c r="G80">
-        <v>931</v>
+        <v>590</v>
       </c>
       <c r="H80">
-        <v>857</v>
+        <v>551</v>
       </c>
       <c r="I80">
-        <v>768</v>
+        <v>577</v>
       </c>
       <c r="J80">
-        <v>922</v>
+        <v>525</v>
       </c>
       <c r="K80">
-        <v>768</v>
+        <v>577</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3232,19 +3232,19 @@
         <v>608</v>
       </c>
       <c r="G81">
-        <v>1096</v>
+        <v>294</v>
       </c>
       <c r="H81">
-        <v>1072</v>
+        <v>247</v>
       </c>
       <c r="I81">
-        <v>1514</v>
+        <v>183</v>
       </c>
       <c r="J81">
-        <v>2270</v>
+        <v>323</v>
       </c>
       <c r="K81">
-        <v>1514</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3267,19 +3267,19 @@
         <v>751</v>
       </c>
       <c r="G82">
-        <v>466</v>
+        <v>852</v>
       </c>
       <c r="H82">
-        <v>411</v>
+        <v>380</v>
       </c>
       <c r="I82">
-        <v>773</v>
+        <v>552</v>
       </c>
       <c r="J82">
-        <v>703</v>
+        <v>370</v>
       </c>
       <c r="K82">
-        <v>773</v>
+        <v>552</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3302,19 +3302,19 @@
         <v>1453</v>
       </c>
       <c r="G83">
-        <v>326</v>
+        <v>523</v>
       </c>
       <c r="H83">
-        <v>305</v>
+        <v>387</v>
       </c>
       <c r="I83">
-        <v>340</v>
+        <v>555</v>
       </c>
       <c r="J83">
-        <v>340</v>
+        <v>414</v>
       </c>
       <c r="K83">
-        <v>340</v>
+        <v>555</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3337,19 +3337,19 @@
         <v>414</v>
       </c>
       <c r="G84">
-        <v>162</v>
+        <v>476</v>
       </c>
       <c r="H84">
-        <v>241</v>
+        <v>474</v>
       </c>
       <c r="I84">
-        <v>250</v>
+        <v>471</v>
       </c>
       <c r="J84">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="K84">
-        <v>250</v>
+        <v>471</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3372,19 +3372,19 @@
         <v>1528</v>
       </c>
       <c r="G85">
-        <v>263</v>
+        <v>1531</v>
       </c>
       <c r="H85">
-        <v>319</v>
+        <v>2099</v>
       </c>
       <c r="I85">
-        <v>331</v>
+        <v>1591</v>
       </c>
       <c r="J85">
-        <v>519</v>
+        <v>1820</v>
       </c>
       <c r="K85">
-        <v>331</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3407,19 +3407,19 @@
         <v>1329</v>
       </c>
       <c r="G86">
-        <v>903</v>
+        <v>746</v>
       </c>
       <c r="H86">
-        <v>873</v>
+        <v>895</v>
       </c>
       <c r="I86">
-        <v>832</v>
+        <v>917</v>
       </c>
       <c r="J86">
-        <v>919</v>
+        <v>1171</v>
       </c>
       <c r="K86">
-        <v>832</v>
+        <v>917</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3442,19 +3442,19 @@
         <v>264</v>
       </c>
       <c r="G87">
-        <v>79</v>
+        <v>888</v>
       </c>
       <c r="H87">
-        <v>5</v>
+        <v>498</v>
       </c>
       <c r="I87">
-        <v>30</v>
+        <v>386</v>
       </c>
       <c r="J87">
-        <v>134</v>
+        <v>394</v>
       </c>
       <c r="K87">
-        <v>30</v>
+        <v>386</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3477,19 +3477,19 @@
         <v>2785</v>
       </c>
       <c r="G88">
-        <v>799</v>
+        <v>1083</v>
       </c>
       <c r="H88">
-        <v>1141</v>
+        <v>1487</v>
       </c>
       <c r="I88">
-        <v>980</v>
+        <v>1547</v>
       </c>
       <c r="J88">
-        <v>837</v>
+        <v>1992</v>
       </c>
       <c r="K88">
-        <v>980</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3512,19 +3512,19 @@
         <v>1017</v>
       </c>
       <c r="G89">
-        <v>1176</v>
+        <v>1631</v>
       </c>
       <c r="H89">
-        <v>651</v>
+        <v>1972</v>
       </c>
       <c r="I89">
-        <v>661</v>
+        <v>940</v>
       </c>
       <c r="J89">
-        <v>901</v>
+        <v>1160</v>
       </c>
       <c r="K89">
-        <v>661</v>
+        <v>940</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3547,19 +3547,19 @@
         <v>1455</v>
       </c>
       <c r="G90">
-        <v>856</v>
+        <v>974</v>
       </c>
       <c r="H90">
-        <v>728</v>
+        <v>875</v>
       </c>
       <c r="I90">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="J90">
-        <v>710</v>
+        <v>748</v>
       </c>
       <c r="K90">
-        <v>774</v>
+        <v>783</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3582,19 +3582,19 @@
         <v>943</v>
       </c>
       <c r="G91">
-        <v>1113</v>
+        <v>1228</v>
       </c>
       <c r="H91">
-        <v>1026</v>
+        <v>1153</v>
       </c>
       <c r="I91">
-        <v>918</v>
+        <v>1190</v>
       </c>
       <c r="J91">
-        <v>1123</v>
+        <v>1501</v>
       </c>
       <c r="K91">
-        <v>918</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3617,19 +3617,19 @@
         <v>857</v>
       </c>
       <c r="G92">
-        <v>1296</v>
+        <v>394</v>
       </c>
       <c r="H92">
-        <v>883</v>
+        <v>338</v>
       </c>
       <c r="I92">
-        <v>807</v>
+        <v>182</v>
       </c>
       <c r="J92">
-        <v>767</v>
+        <v>523</v>
       </c>
       <c r="K92">
-        <v>807</v>
+        <v>182</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3652,19 +3652,19 @@
         <v>1511</v>
       </c>
       <c r="G93">
-        <v>1299</v>
+        <v>1045</v>
       </c>
       <c r="H93">
-        <v>1280</v>
+        <v>1422</v>
       </c>
       <c r="I93">
-        <v>1391</v>
+        <v>1409</v>
       </c>
       <c r="J93">
-        <v>1466</v>
+        <v>1406</v>
       </c>
       <c r="K93">
-        <v>1391</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3687,19 +3687,19 @@
         <v>2898</v>
       </c>
       <c r="G94">
-        <v>978</v>
+        <v>2047</v>
       </c>
       <c r="H94">
-        <v>717</v>
+        <v>1929</v>
       </c>
       <c r="I94">
-        <v>732</v>
+        <v>2087</v>
       </c>
       <c r="J94">
-        <v>873</v>
+        <v>2298</v>
       </c>
       <c r="K94">
-        <v>732</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3722,19 +3722,19 @@
         <v>1627</v>
       </c>
       <c r="G95">
-        <v>799</v>
+        <v>647</v>
       </c>
       <c r="H95">
-        <v>716</v>
+        <v>531</v>
       </c>
       <c r="I95">
-        <v>596</v>
+        <v>540</v>
       </c>
       <c r="J95">
-        <v>565</v>
+        <v>760</v>
       </c>
       <c r="K95">
-        <v>596</v>
+        <v>540</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3757,19 +3757,19 @@
         <v>526</v>
       </c>
       <c r="G96">
-        <v>475</v>
+        <v>255</v>
       </c>
       <c r="H96">
-        <v>579</v>
+        <v>175</v>
       </c>
       <c r="I96">
-        <v>452</v>
+        <v>164</v>
       </c>
       <c r="J96">
-        <v>608</v>
+        <v>210</v>
       </c>
       <c r="K96">
-        <v>452</v>
+        <v>164</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3792,19 +3792,19 @@
         <v>565</v>
       </c>
       <c r="G97">
-        <v>604</v>
+        <v>553</v>
       </c>
       <c r="H97">
-        <v>531</v>
+        <v>423</v>
       </c>
       <c r="I97">
-        <v>451</v>
+        <v>285</v>
       </c>
       <c r="J97">
-        <v>568</v>
+        <v>265</v>
       </c>
       <c r="K97">
-        <v>451</v>
+        <v>285</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3827,19 +3827,19 @@
         <v>668</v>
       </c>
       <c r="G98">
-        <v>1104</v>
+        <v>906</v>
       </c>
       <c r="H98">
-        <v>883</v>
+        <v>966</v>
       </c>
       <c r="I98">
-        <v>1702</v>
+        <v>801</v>
       </c>
       <c r="J98">
-        <v>1891</v>
+        <v>812</v>
       </c>
       <c r="K98">
-        <v>1702</v>
+        <v>801</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3862,19 +3862,19 @@
         <v>370</v>
       </c>
       <c r="G99">
-        <v>366</v>
+        <v>999</v>
       </c>
       <c r="H99">
-        <v>283</v>
+        <v>808</v>
       </c>
       <c r="I99">
-        <v>643</v>
+        <v>974</v>
       </c>
       <c r="J99">
-        <v>528</v>
+        <v>1088</v>
       </c>
       <c r="K99">
-        <v>643</v>
+        <v>974</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3897,19 +3897,19 @@
         <v>1092</v>
       </c>
       <c r="G100">
-        <v>572</v>
+        <v>816</v>
       </c>
       <c r="H100">
-        <v>475</v>
+        <v>984</v>
       </c>
       <c r="I100">
-        <v>956</v>
+        <v>1124</v>
       </c>
       <c r="J100">
+        <v>879</v>
+      </c>
+      <c r="K100">
         <v>1124</v>
-      </c>
-      <c r="K100">
-        <v>956</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3932,19 +3932,19 @@
         <v>1537</v>
       </c>
       <c r="G101">
-        <v>691</v>
+        <v>1128</v>
       </c>
       <c r="H101">
-        <v>664</v>
+        <v>1516</v>
       </c>
       <c r="I101">
-        <v>529</v>
+        <v>1416</v>
       </c>
       <c r="J101">
-        <v>392</v>
+        <v>1449</v>
       </c>
       <c r="K101">
-        <v>529</v>
+        <v>1416</v>
       </c>
     </row>
   </sheetData>
@@ -4015,19 +4015,19 @@
         <v>127</v>
       </c>
       <c r="G2">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="H2">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="I2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="J2">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="K2">
-        <v>139</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4050,19 +4050,19 @@
         <v>190</v>
       </c>
       <c r="G3">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="H3">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I3">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="J3">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="K3">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4085,19 +4085,19 @@
         <v>128</v>
       </c>
       <c r="G4">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="H4">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="I4">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J4">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4120,19 +4120,19 @@
         <v>264</v>
       </c>
       <c r="G5">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="H5">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="I5">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J5">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="K5">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -4155,19 +4155,19 @@
         <v>218</v>
       </c>
       <c r="G6">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="H6">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="I6">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="J6">
-        <v>93</v>
+        <v>249</v>
       </c>
       <c r="K6">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4190,19 +4190,19 @@
         <v>269</v>
       </c>
       <c r="G7">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="H7">
-        <v>99</v>
+        <v>209</v>
       </c>
       <c r="I7">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="J7">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="K7">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4225,16 +4225,16 @@
         <v>137</v>
       </c>
       <c r="G8">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="H8">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="I8">
         <v>154</v>
       </c>
       <c r="J8">
-        <v>155</v>
+        <v>216</v>
       </c>
       <c r="K8">
         <v>154</v>
@@ -4260,19 +4260,19 @@
         <v>218</v>
       </c>
       <c r="G9">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="H9">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="I9">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="J9">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="K9">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -4295,19 +4295,19 @@
         <v>122</v>
       </c>
       <c r="G10">
-        <v>295</v>
+        <v>98</v>
       </c>
       <c r="H10">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="I10">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="J10">
-        <v>216</v>
+        <v>51</v>
       </c>
       <c r="K10">
-        <v>193</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -4330,19 +4330,19 @@
         <v>123</v>
       </c>
       <c r="G11">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="H11">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="I11">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="J11">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="K11">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -4365,19 +4365,19 @@
         <v>97</v>
       </c>
       <c r="G12">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="H12">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="I12">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J12">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="K12">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -4400,19 +4400,19 @@
         <v>206</v>
       </c>
       <c r="G13">
-        <v>87</v>
+        <v>246</v>
       </c>
       <c r="H13">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="I13">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="J13">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="K13">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -4435,19 +4435,19 @@
         <v>136</v>
       </c>
       <c r="G14">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="H14">
-        <v>183</v>
+        <v>54</v>
       </c>
       <c r="I14">
-        <v>189</v>
+        <v>30</v>
       </c>
       <c r="J14">
-        <v>215</v>
+        <v>57</v>
       </c>
       <c r="K14">
-        <v>189</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -4470,16 +4470,16 @@
         <v>148</v>
       </c>
       <c r="G15">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="H15">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="I15">
         <v>126</v>
       </c>
       <c r="J15">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c r="K15">
         <v>126</v>
@@ -4505,19 +4505,19 @@
         <v>200</v>
       </c>
       <c r="G16">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="H16">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="I16">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="J16">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="K16">
-        <v>108</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -4540,19 +4540,19 @@
         <v>156</v>
       </c>
       <c r="G17">
-        <v>195</v>
+        <v>124</v>
       </c>
       <c r="H17">
-        <v>260</v>
+        <v>140</v>
       </c>
       <c r="I17">
-        <v>202</v>
+        <v>117</v>
       </c>
       <c r="J17">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="K17">
-        <v>202</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -4575,19 +4575,19 @@
         <v>258</v>
       </c>
       <c r="G18">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="H18">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="I18">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="J18">
-        <v>263</v>
+        <v>147</v>
       </c>
       <c r="K18">
-        <v>180</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -4610,19 +4610,19 @@
         <v>288</v>
       </c>
       <c r="G19">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="H19">
-        <v>108</v>
+        <v>231</v>
       </c>
       <c r="I19">
-        <v>143</v>
+        <v>268</v>
       </c>
       <c r="J19">
-        <v>105</v>
+        <v>287</v>
       </c>
       <c r="K19">
-        <v>143</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -4645,19 +4645,19 @@
         <v>147</v>
       </c>
       <c r="G20">
-        <v>210</v>
+        <v>54</v>
       </c>
       <c r="H20">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="I20">
-        <v>242</v>
+        <v>71</v>
       </c>
       <c r="J20">
-        <v>208</v>
+        <v>74</v>
       </c>
       <c r="K20">
-        <v>242</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -4680,19 +4680,19 @@
         <v>249</v>
       </c>
       <c r="G21">
-        <v>123</v>
+        <v>194</v>
       </c>
       <c r="H21">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="I21">
-        <v>116</v>
+        <v>212</v>
       </c>
       <c r="J21">
-        <v>135</v>
+        <v>211</v>
       </c>
       <c r="K21">
-        <v>116</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -4715,19 +4715,19 @@
         <v>316</v>
       </c>
       <c r="G22">
-        <v>299</v>
+        <v>160</v>
       </c>
       <c r="H22">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="I22">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="J22">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="K22">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -4750,19 +4750,19 @@
         <v>410</v>
       </c>
       <c r="G23">
-        <v>137</v>
+        <v>213</v>
       </c>
       <c r="H23">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="I23">
-        <v>73</v>
+        <v>182</v>
       </c>
       <c r="J23">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="K23">
-        <v>73</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -4785,19 +4785,19 @@
         <v>111</v>
       </c>
       <c r="G24">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="H24">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="I24">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="J24">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="K24">
-        <v>152</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -4820,19 +4820,19 @@
         <v>167</v>
       </c>
       <c r="G25">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="H25">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="I25">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="J25">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="K25">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -4855,19 +4855,19 @@
         <v>256</v>
       </c>
       <c r="G26">
-        <v>117</v>
+        <v>207</v>
       </c>
       <c r="H26">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="I26">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="J26">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="K26">
-        <v>127</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -4890,19 +4890,19 @@
         <v>107</v>
       </c>
       <c r="G27">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H27">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I27">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="J27">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="K27">
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -4925,19 +4925,19 @@
         <v>87</v>
       </c>
       <c r="G28">
-        <v>107</v>
+        <v>195</v>
       </c>
       <c r="H28">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="I28">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J28">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="K28">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -4960,19 +4960,19 @@
         <v>191</v>
       </c>
       <c r="G29">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="H29">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I29">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="J29">
         <v>181</v>
       </c>
       <c r="K29">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -4995,19 +4995,19 @@
         <v>293</v>
       </c>
       <c r="G30">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c r="H30">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="I30">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="J30">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="K30">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -5030,19 +5030,19 @@
         <v>193</v>
       </c>
       <c r="G31">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="H31">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I31">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="J31">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="K31">
-        <v>124</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -5065,19 +5065,19 @@
         <v>225</v>
       </c>
       <c r="G32">
-        <v>241</v>
+        <v>154</v>
       </c>
       <c r="H32">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="I32">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="J32">
         <v>147</v>
       </c>
       <c r="K32">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -5100,19 +5100,19 @@
         <v>208</v>
       </c>
       <c r="G33">
-        <v>47</v>
+        <v>214</v>
       </c>
       <c r="H33">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="I33">
-        <v>100</v>
+        <v>297</v>
       </c>
       <c r="J33">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="K33">
-        <v>100</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -5135,19 +5135,19 @@
         <v>180</v>
       </c>
       <c r="G34">
-        <v>235</v>
+        <v>185</v>
       </c>
       <c r="H34">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="I34">
-        <v>88</v>
+        <v>206</v>
       </c>
       <c r="J34">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="K34">
-        <v>88</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -5170,19 +5170,19 @@
         <v>113</v>
       </c>
       <c r="G35">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="H35">
-        <v>33</v>
+        <v>183</v>
       </c>
       <c r="I35">
-        <v>43</v>
+        <v>163</v>
       </c>
       <c r="J35">
-        <v>47</v>
+        <v>186</v>
       </c>
       <c r="K35">
-        <v>43</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -5205,19 +5205,19 @@
         <v>149</v>
       </c>
       <c r="G36">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="H36">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="I36">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="J36">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="K36">
-        <v>116</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -5240,19 +5240,19 @@
         <v>138</v>
       </c>
       <c r="G37">
-        <v>193</v>
+        <v>61</v>
       </c>
       <c r="H37">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="I37">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="J37">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="K37">
-        <v>134</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -5275,19 +5275,19 @@
         <v>160</v>
       </c>
       <c r="G38">
-        <v>270</v>
+        <v>132</v>
       </c>
       <c r="H38">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="I38">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="J38">
-        <v>229</v>
+        <v>65</v>
       </c>
       <c r="K38">
-        <v>209</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -5310,19 +5310,19 @@
         <v>251</v>
       </c>
       <c r="G39">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H39">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I39">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="J39">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="K39">
-        <v>191</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -5345,19 +5345,19 @@
         <v>170</v>
       </c>
       <c r="G40">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="H40">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="I40">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="J40">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="K40">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -5380,19 +5380,19 @@
         <v>337</v>
       </c>
       <c r="G41">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="H41">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="I41">
-        <v>171</v>
+        <v>221</v>
       </c>
       <c r="J41">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="K41">
-        <v>171</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -5415,19 +5415,19 @@
         <v>169</v>
       </c>
       <c r="G42">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c r="H42">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="I42">
-        <v>191</v>
+        <v>112</v>
       </c>
       <c r="J42">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="K42">
-        <v>191</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -5450,19 +5450,19 @@
         <v>107</v>
       </c>
       <c r="G43">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="H43">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="I43">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="J43">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="K43">
-        <v>145</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -5485,19 +5485,19 @@
         <v>138</v>
       </c>
       <c r="G44">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="H44">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="I44">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="J44">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="K44">
-        <v>142</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -5520,19 +5520,19 @@
         <v>153</v>
       </c>
       <c r="G45">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="H45">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="I45">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="J45">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="K45">
-        <v>112</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -5555,19 +5555,19 @@
         <v>119</v>
       </c>
       <c r="G46">
-        <v>269</v>
+        <v>123</v>
       </c>
       <c r="H46">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="I46">
-        <v>242</v>
+        <v>56</v>
       </c>
       <c r="J46">
-        <v>216</v>
+        <v>93</v>
       </c>
       <c r="K46">
-        <v>242</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -5590,19 +5590,19 @@
         <v>197</v>
       </c>
       <c r="G47">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="H47">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="I47">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="J47">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="K47">
-        <v>138</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -5625,19 +5625,19 @@
         <v>145</v>
       </c>
       <c r="G48">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="H48">
-        <v>84</v>
+        <v>210</v>
       </c>
       <c r="I48">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="J48">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="K48">
-        <v>95</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -5660,19 +5660,19 @@
         <v>58</v>
       </c>
       <c r="G49">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c r="H49">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="I49">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="J49">
-        <v>241</v>
+        <v>72</v>
       </c>
       <c r="K49">
-        <v>221</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -5695,19 +5695,19 @@
         <v>114</v>
       </c>
       <c r="G50">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="H50">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="I50">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="J50">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="K50">
-        <v>133</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -5730,19 +5730,19 @@
         <v>435</v>
       </c>
       <c r="G51">
-        <v>154</v>
+        <v>349</v>
       </c>
       <c r="H51">
-        <v>201</v>
+        <v>257</v>
       </c>
       <c r="I51">
-        <v>144</v>
+        <v>363</v>
       </c>
       <c r="J51">
-        <v>251</v>
+        <v>327</v>
       </c>
       <c r="K51">
-        <v>144</v>
+        <v>363</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -5765,19 +5765,19 @@
         <v>146</v>
       </c>
       <c r="G52">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="H52">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="I52">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="J52">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="K52">
-        <v>50</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -5800,19 +5800,19 @@
         <v>162</v>
       </c>
       <c r="G53">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="H53">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="I53">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="J53">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="K53">
-        <v>160</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -5835,19 +5835,19 @@
         <v>151</v>
       </c>
       <c r="G54">
-        <v>60</v>
+        <v>212</v>
       </c>
       <c r="H54">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="I54">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="J54">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="K54">
-        <v>55</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -5870,19 +5870,19 @@
         <v>130</v>
       </c>
       <c r="G55">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H55">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="I55">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="J55">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="K55">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -5905,19 +5905,19 @@
         <v>183</v>
       </c>
       <c r="G56">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="H56">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="I56">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="J56">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="K56">
-        <v>180</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -5940,19 +5940,19 @@
         <v>124</v>
       </c>
       <c r="G57">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="H57">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="I57">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="J57">
-        <v>241</v>
+        <v>103</v>
       </c>
       <c r="K57">
-        <v>121</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -5975,19 +5975,19 @@
         <v>226</v>
       </c>
       <c r="G58">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="H58">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="I58">
-        <v>143</v>
+        <v>255</v>
       </c>
       <c r="J58">
-        <v>125</v>
+        <v>281</v>
       </c>
       <c r="K58">
-        <v>143</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -6010,19 +6010,19 @@
         <v>199</v>
       </c>
       <c r="G59">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="H59">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="I59">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="J59">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="K59">
-        <v>140</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -6045,19 +6045,19 @@
         <v>176</v>
       </c>
       <c r="G60">
-        <v>167</v>
+        <v>230</v>
       </c>
       <c r="H60">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="I60">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="J60">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="K60">
-        <v>94</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -6080,19 +6080,19 @@
         <v>209</v>
       </c>
       <c r="G61">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="H61">
-        <v>85</v>
+        <v>176</v>
       </c>
       <c r="I61">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="J61">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="K61">
-        <v>125</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -6115,19 +6115,19 @@
         <v>182</v>
       </c>
       <c r="G62">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="H62">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="I62">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="J62">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="K62">
-        <v>148</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -6150,19 +6150,19 @@
         <v>302</v>
       </c>
       <c r="G63">
-        <v>183</v>
+        <v>335</v>
       </c>
       <c r="H63">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="I63">
-        <v>206</v>
+        <v>327</v>
       </c>
       <c r="J63">
-        <v>248</v>
+        <v>360</v>
       </c>
       <c r="K63">
-        <v>206</v>
+        <v>327</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -6185,19 +6185,19 @@
         <v>158</v>
       </c>
       <c r="G64">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="H64">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="I64">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="J64">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="K64">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -6220,19 +6220,19 @@
         <v>123</v>
       </c>
       <c r="G65">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="H65">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="I65">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="J65">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="K65">
-        <v>95</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -6255,19 +6255,19 @@
         <v>232</v>
       </c>
       <c r="G66">
-        <v>153</v>
+        <v>270</v>
       </c>
       <c r="H66">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="I66">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="J66">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="K66">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -6290,19 +6290,19 @@
         <v>151</v>
       </c>
       <c r="G67">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="H67">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="I67">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="J67">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="K67">
-        <v>173</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -6325,19 +6325,19 @@
         <v>312</v>
       </c>
       <c r="G68">
-        <v>74</v>
+        <v>234</v>
       </c>
       <c r="H68">
-        <v>54</v>
+        <v>193</v>
       </c>
       <c r="I68">
-        <v>33</v>
+        <v>182</v>
       </c>
       <c r="J68">
-        <v>56</v>
+        <v>288</v>
       </c>
       <c r="K68">
-        <v>33</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -6360,19 +6360,19 @@
         <v>141</v>
       </c>
       <c r="G69">
-        <v>126</v>
+        <v>273</v>
       </c>
       <c r="H69">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="I69">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="J69">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="K69">
-        <v>140</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -6395,19 +6395,19 @@
         <v>286</v>
       </c>
       <c r="G70">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="H70">
-        <v>276</v>
+        <v>178</v>
       </c>
       <c r="I70">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="J70">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="K70">
-        <v>277</v>
+        <v>299</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -6430,19 +6430,19 @@
         <v>76</v>
       </c>
       <c r="G71">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c r="H71">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I71">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J71">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="K71">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -6465,19 +6465,19 @@
         <v>120</v>
       </c>
       <c r="G72">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="H72">
-        <v>162</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="J72">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="K72">
-        <v>74</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -6500,19 +6500,19 @@
         <v>168</v>
       </c>
       <c r="G73">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="H73">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I73">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="J73">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="K73">
-        <v>160</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -6535,19 +6535,19 @@
         <v>134</v>
       </c>
       <c r="G74">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c r="H74">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="I74">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="J74">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="K74">
-        <v>140</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -6570,19 +6570,19 @@
         <v>262</v>
       </c>
       <c r="G75">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="H75">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I75">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="J75">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="K75">
-        <v>135</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -6605,19 +6605,19 @@
         <v>178</v>
       </c>
       <c r="G76">
-        <v>134</v>
+        <v>198</v>
       </c>
       <c r="H76">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="I76">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c r="J76">
-        <v>113</v>
+        <v>202</v>
       </c>
       <c r="K76">
-        <v>84</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -6640,19 +6640,19 @@
         <v>191</v>
       </c>
       <c r="G77">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H77">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="I77">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="J77">
-        <v>124</v>
+        <v>186</v>
       </c>
       <c r="K77">
-        <v>136</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -6675,19 +6675,19 @@
         <v>139</v>
       </c>
       <c r="G78">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H78">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="I78">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="J78">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K78">
-        <v>44</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -6710,19 +6710,19 @@
         <v>135</v>
       </c>
       <c r="G79">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H79">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="I79">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="J79">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="K79">
-        <v>110</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -6745,19 +6745,19 @@
         <v>120</v>
       </c>
       <c r="G80">
-        <v>235</v>
+        <v>117</v>
       </c>
       <c r="H80">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="I80">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="J80">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="K80">
-        <v>157</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -6780,19 +6780,19 @@
         <v>127</v>
       </c>
       <c r="G81">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="H81">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="I81">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="J81">
-        <v>285</v>
+        <v>134</v>
       </c>
       <c r="K81">
-        <v>161</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -6815,19 +6815,19 @@
         <v>163</v>
       </c>
       <c r="G82">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="H82">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="I82">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J82">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="K82">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -6850,19 +6850,19 @@
         <v>196</v>
       </c>
       <c r="G83">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="H83">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="I83">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J83">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="K83">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -6885,19 +6885,19 @@
         <v>99</v>
       </c>
       <c r="G84">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="H84">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="I84">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="J84">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="K84">
-        <v>100</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -6920,19 +6920,19 @@
         <v>172</v>
       </c>
       <c r="G85">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="H85">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="I85">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="J85">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="K85">
-        <v>115</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -6955,19 +6955,19 @@
         <v>195</v>
       </c>
       <c r="G86">
-        <v>205</v>
+        <v>100</v>
       </c>
       <c r="H86">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I86">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="J86">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="K86">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -6990,19 +6990,19 @@
         <v>108</v>
       </c>
       <c r="G87">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="H87">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="I87">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="J87">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="K87">
-        <v>15</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -7025,19 +7025,19 @@
         <v>329</v>
       </c>
       <c r="G88">
-        <v>159</v>
+        <v>230</v>
       </c>
       <c r="H88">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="I88">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="J88">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K88">
-        <v>186</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -7060,19 +7060,19 @@
         <v>195</v>
       </c>
       <c r="G89">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="H89">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="I89">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J89">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="K89">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -7098,16 +7098,16 @@
         <v>150</v>
       </c>
       <c r="H90">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="I90">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="J90">
-        <v>219</v>
+        <v>125</v>
       </c>
       <c r="K90">
-        <v>191</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -7130,19 +7130,19 @@
         <v>238</v>
       </c>
       <c r="G91">
-        <v>330</v>
+        <v>198</v>
       </c>
       <c r="H91">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="I91">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="J91">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="K91">
-        <v>136</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -7165,19 +7165,19 @@
         <v>142</v>
       </c>
       <c r="G92">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="H92">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="I92">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="J92">
-        <v>177</v>
+        <v>69</v>
       </c>
       <c r="K92">
-        <v>151</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -7200,19 +7200,19 @@
         <v>223</v>
       </c>
       <c r="G93">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="H93">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="I93">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="J93">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="K93">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -7235,19 +7235,19 @@
         <v>291</v>
       </c>
       <c r="G94">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="H94">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="I94">
-        <v>134</v>
+        <v>263</v>
       </c>
       <c r="J94">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="K94">
-        <v>134</v>
+        <v>263</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -7270,19 +7270,19 @@
         <v>232</v>
       </c>
       <c r="G95">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="H95">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="I95">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="J95">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="K95">
-        <v>143</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -7305,19 +7305,19 @@
         <v>159</v>
       </c>
       <c r="G96">
-        <v>174</v>
+        <v>91</v>
       </c>
       <c r="H96">
-        <v>212</v>
+        <v>66</v>
       </c>
       <c r="I96">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="J96">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K96">
-        <v>175</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -7340,19 +7340,19 @@
         <v>174</v>
       </c>
       <c r="G97">
-        <v>121</v>
+        <v>219</v>
       </c>
       <c r="H97">
-        <v>103</v>
+        <v>210</v>
       </c>
       <c r="I97">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="J97">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="K97">
-        <v>129</v>
+        <v>72</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -7375,19 +7375,19 @@
         <v>126</v>
       </c>
       <c r="G98">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H98">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I98">
-        <v>245</v>
+        <v>159</v>
       </c>
       <c r="J98">
-        <v>276</v>
+        <v>159</v>
       </c>
       <c r="K98">
-        <v>245</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -7410,19 +7410,19 @@
         <v>118</v>
       </c>
       <c r="G99">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="H99">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="I99">
-        <v>117</v>
+        <v>202</v>
       </c>
       <c r="J99">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="K99">
-        <v>117</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -7445,19 +7445,19 @@
         <v>136</v>
       </c>
       <c r="G100">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="H100">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="I100">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="J100">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="K100">
-        <v>138</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -7480,19 +7480,19 @@
         <v>200</v>
       </c>
       <c r="G101">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="H101">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c r="I101">
-        <v>116</v>
+        <v>212</v>
       </c>
       <c r="J101">
-        <v>120</v>
+        <v>283</v>
       </c>
       <c r="K101">
-        <v>116</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -7563,19 +7563,19 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="G2">
-        <v>0.3928571428571428</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="H2">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I2">
-        <v>0.5357142857142857</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="J2">
-        <v>0.6428571428571429</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="K2">
-        <v>0.5357142857142857</v>
+        <v>0.1785714285714286</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7598,19 +7598,19 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="G3">
-        <v>0.25</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="H3">
-        <v>0.4642857142857143</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="I3">
-        <v>0.5</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="J3">
-        <v>0.5714285714285714</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="K3">
-        <v>0.5</v>
+        <v>0.3928571428571428</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7633,19 +7633,19 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="G4">
-        <v>0.3571428571428572</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="H4">
-        <v>0.3214285714285715</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="I4">
-        <v>0.3928571428571428</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="J4">
-        <v>0.4642857142857143</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K4">
-        <v>0.3928571428571428</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7668,19 +7668,19 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="G5">
-        <v>0.2142857142857143</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H5">
-        <v>0.2142857142857143</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="I5">
-        <v>0.2142857142857143</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J5">
-        <v>0.2142857142857143</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="K5">
-        <v>0.2142857142857143</v>
+        <v>0.8928571428571429</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7703,19 +7703,19 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.2142857142857143</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H6">
-        <v>0.1785714285714286</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="I6">
-        <v>0.1785714285714286</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="J6">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K6">
-        <v>0.1785714285714286</v>
+        <v>0.6785714285714286</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -7738,16 +7738,16 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="G7">
+        <v>0.1071428571428571</v>
+      </c>
+      <c r="H7">
         <v>0.1428571428571428</v>
-      </c>
-      <c r="H7">
-        <v>0.1071428571428571</v>
       </c>
       <c r="I7">
         <v>0.1428571428571428</v>
       </c>
       <c r="J7">
-        <v>0.2142857142857143</v>
+        <v>0.25</v>
       </c>
       <c r="K7">
         <v>0.1428571428571428</v>
@@ -7773,19 +7773,19 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="G8">
-        <v>0.4642857142857143</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="H8">
-        <v>0.3571428571428572</v>
+        <v>0.25</v>
       </c>
       <c r="I8">
-        <v>0.4642857142857143</v>
+        <v>0.25</v>
       </c>
       <c r="J8">
-        <v>0.5714285714285714</v>
+        <v>0.25</v>
       </c>
       <c r="K8">
-        <v>0.4642857142857143</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -7808,19 +7808,19 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="G9">
-        <v>0.2857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="H9">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="I9">
+        <v>0.5</v>
+      </c>
+      <c r="J9">
         <v>0.4285714285714285</v>
       </c>
-      <c r="I9">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="J9">
-        <v>0.5714285714285714</v>
-      </c>
       <c r="K9">
-        <v>0.5357142857142857</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7843,19 +7843,19 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="G10">
-        <v>0.7857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="H10">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I10">
-        <v>0.8928571428571429</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="J10">
-        <v>0.8571428571428571</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="K10">
-        <v>0.8928571428571429</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -7878,19 +7878,19 @@
         <v>0.3928571428571428</v>
       </c>
       <c r="G11">
-        <v>0.25</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="H11">
         <v>0.25</v>
       </c>
       <c r="I11">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="J11">
-        <v>0.3928571428571428</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="K11">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7913,19 +7913,19 @@
         <v>0.25</v>
       </c>
       <c r="G12">
-        <v>0.4285714285714285</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="H12">
-        <v>0.6785714285714286</v>
+        <v>0.25</v>
       </c>
       <c r="I12">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="J12">
-        <v>0.7142857142857143</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="K12">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -7948,19 +7948,19 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="G13">
-        <v>0.2857142857142857</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="H13">
-        <v>0.2142857142857143</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="I13">
-        <v>0.2857142857142857</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="J13">
-        <v>0.3214285714285715</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="K13">
-        <v>0.2857142857142857</v>
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -7983,19 +7983,19 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="G14">
-        <v>0.7857142857142857</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="H14">
-        <v>0.8214285714285714</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="I14">
-        <v>0.8214285714285714</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="J14">
-        <v>0.9285714285714286</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="K14">
-        <v>0.8214285714285714</v>
+        <v>0.1785714285714286</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8018,19 +8018,19 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="G15">
-        <v>0.1785714285714286</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="H15">
-        <v>0.1428571428571428</v>
+        <v>0.25</v>
       </c>
       <c r="I15">
-        <v>0.1071428571428571</v>
+        <v>0.25</v>
       </c>
       <c r="J15">
-        <v>0.2142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K15">
-        <v>0.1071428571428571</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8053,10 +8053,10 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="G16">
-        <v>0.4285714285714285</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="H16">
-        <v>0.3571428571428572</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="I16">
         <v>0.3928571428571428</v>
@@ -8088,19 +8088,19 @@
         <v>0.6071428571428571</v>
       </c>
       <c r="G17">
+        <v>0.5</v>
+      </c>
+      <c r="H17">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="I17">
         <v>0.5357142857142857</v>
       </c>
-      <c r="H17">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="I17">
-        <v>0.5</v>
-      </c>
       <c r="J17">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K17">
-        <v>0.5</v>
+        <v>0.5357142857142857</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8123,19 +8123,19 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="G18">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="H18">
         <v>0.75</v>
       </c>
-      <c r="H18">
-        <v>0.8928571428571429</v>
-      </c>
       <c r="I18">
-        <v>0.9285714285714286</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="J18">
-        <v>0.9285714285714286</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="K18">
-        <v>0.9285714285714286</v>
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8158,19 +8158,19 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="G19">
-        <v>0.3214285714285715</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H19">
-        <v>0.2142857142857143</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="I19">
-        <v>0.4642857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J19">
-        <v>0.5</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="K19">
-        <v>0.4642857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -8193,19 +8193,19 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="G20">
-        <v>0.1785714285714286</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H20">
-        <v>0.2142857142857143</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="I20">
-        <v>0.1785714285714286</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="J20">
-        <v>0.25</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K20">
-        <v>0.1785714285714286</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -8231,16 +8231,16 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="H21">
-        <v>0.6785714285714286</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="I21">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J21">
-        <v>0.6785714285714286</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="K21">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -8263,19 +8263,19 @@
         <v>0.5</v>
       </c>
       <c r="G22">
-        <v>0.6428571428571429</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="H22">
-        <v>0.7857142857142857</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I22">
-        <v>0.8571428571428571</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="J22">
-        <v>0.8928571428571429</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K22">
-        <v>0.8571428571428571</v>
+        <v>0.3928571428571428</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -8298,19 +8298,19 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="G23">
-        <v>0.3571428571428572</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="H23">
-        <v>0.1785714285714286</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="I23">
-        <v>0.25</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="J23">
-        <v>0.4642857142857143</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="K23">
-        <v>0.25</v>
+        <v>0.8214285714285714</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -8333,19 +8333,19 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="G24">
-        <v>0.4642857142857143</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="H24">
-        <v>0.5357142857142857</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I24">
-        <v>0.5714285714285714</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="J24">
-        <v>0.4642857142857143</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="K24">
-        <v>0.5714285714285714</v>
+        <v>0.3214285714285715</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -8371,16 +8371,16 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="H25">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I25">
+        <v>0.1071428571428571</v>
+      </c>
+      <c r="J25">
         <v>0.2142857142857143</v>
       </c>
-      <c r="J25">
-        <v>0.2857142857142857</v>
-      </c>
       <c r="K25">
-        <v>0.2142857142857143</v>
+        <v>0.1071428571428571</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -8403,16 +8403,16 @@
         <v>0.25</v>
       </c>
       <c r="G26">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H26">
         <v>0.3571428571428572</v>
-      </c>
-      <c r="H26">
-        <v>0.3214285714285715</v>
       </c>
       <c r="I26">
         <v>0.3928571428571428</v>
       </c>
       <c r="J26">
-        <v>0.3928571428571428</v>
+        <v>0.5</v>
       </c>
       <c r="K26">
         <v>0.3928571428571428</v>
@@ -8438,19 +8438,19 @@
         <v>0.3214285714285715</v>
       </c>
       <c r="G27">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="H27">
         <v>0.25</v>
       </c>
-      <c r="H27">
-        <v>0.3571428571428572</v>
-      </c>
       <c r="I27">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="J27">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="K27">
         <v>0.4285714285714285</v>
-      </c>
-      <c r="K27">
-        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -8473,19 +8473,19 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="G28">
-        <v>0.3571428571428572</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="H28">
-        <v>0.7857142857142857</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="I28">
-        <v>0.75</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="J28">
-        <v>0.75</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="K28">
-        <v>0.75</v>
+        <v>0.3928571428571428</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -8508,19 +8508,19 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="G29">
-        <v>0.6428571428571429</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H29">
-        <v>0.6785714285714286</v>
+        <v>0.75</v>
       </c>
       <c r="I29">
-        <v>0.5</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="J29">
-        <v>0.6071428571428571</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.8214285714285714</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -8543,19 +8543,19 @@
         <v>0.8214285714285714</v>
       </c>
       <c r="G30">
-        <v>0.3214285714285715</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H30">
-        <v>0.3214285714285715</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="I30">
-        <v>0.3214285714285715</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="J30">
-        <v>0.4285714285714285</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K30">
-        <v>0.3214285714285715</v>
+        <v>0.8214285714285714</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -8578,19 +8578,19 @@
         <v>0.3214285714285715</v>
       </c>
       <c r="G31">
-        <v>0.3928571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H31">
-        <v>0.5714285714285714</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="I31">
-        <v>0.6428571428571429</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J31">
-        <v>0.6071428571428571</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="K31">
-        <v>0.6428571428571429</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -8613,19 +8613,19 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="G32">
-        <v>0.6071428571428571</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="H32">
-        <v>0.6428571428571429</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="I32">
-        <v>0.7142857142857143</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="J32">
-        <v>0.7857142857142857</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="K32">
-        <v>0.7142857142857143</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -8648,19 +8648,19 @@
         <v>0.6071428571428571</v>
       </c>
       <c r="G33">
-        <v>0.1071428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H33">
-        <v>0.1071428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="I33">
-        <v>0.2142857142857143</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="J33">
-        <v>0.1428571428571428</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K33">
-        <v>0.2142857142857143</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -8683,7 +8683,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="G34">
-        <v>0.6071428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H34">
         <v>0.6785714285714286</v>
@@ -8692,7 +8692,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="J34">
-        <v>0.6071428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="K34">
         <v>0.7142857142857143</v>
@@ -8718,19 +8718,19 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="G35">
-        <v>0.1428571428571428</v>
+        <v>0.25</v>
       </c>
       <c r="H35">
-        <v>0.1071428571428571</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="I35">
-        <v>0.1428571428571428</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="J35">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="K35">
         <v>0.2142857142857143</v>
-      </c>
-      <c r="K35">
-        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -8753,19 +8753,19 @@
         <v>0.6428571428571429</v>
       </c>
       <c r="G36">
-        <v>0.2142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H36">
-        <v>0.2857142857142857</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="I36">
-        <v>0.2857142857142857</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="J36">
-        <v>0.4642857142857143</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="K36">
-        <v>0.2857142857142857</v>
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -8788,19 +8788,19 @@
         <v>0.25</v>
       </c>
       <c r="G37">
-        <v>0.5714285714285714</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="H37">
-        <v>0.5714285714285714</v>
+        <v>0.25</v>
       </c>
       <c r="I37">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="J37">
-        <v>0.75</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="K37">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -8823,19 +8823,19 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="G38">
-        <v>0.8214285714285714</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="H38">
-        <v>0.8928571428571429</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="I38">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="J38">
-        <v>0.8928571428571429</v>
+        <v>0.5</v>
       </c>
       <c r="K38">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -8858,16 +8858,16 @@
         <v>0.5</v>
       </c>
       <c r="G39">
-        <v>0.5357142857142857</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="H39">
-        <v>0.7142857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="I39">
         <v>0.6785714285714286</v>
       </c>
       <c r="J39">
-        <v>0.6785714285714286</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="K39">
         <v>0.6785714285714286</v>
@@ -8893,19 +8893,19 @@
         <v>0.3928571428571428</v>
       </c>
       <c r="G40">
-        <v>0.25</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="H40">
-        <v>0.2142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="I40">
-        <v>0.2142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="J40">
-        <v>0.3214285714285715</v>
+        <v>0.5</v>
       </c>
       <c r="K40">
-        <v>0.2142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -8928,19 +8928,19 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="G41">
-        <v>0.6428571428571429</v>
+        <v>0.75</v>
       </c>
       <c r="H41">
-        <v>0.5714285714285714</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="I41">
-        <v>0.6071428571428571</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="J41">
-        <v>0.7857142857142857</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="K41">
-        <v>0.6071428571428571</v>
+        <v>0.8214285714285714</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -8963,19 +8963,19 @@
         <v>0.5</v>
       </c>
       <c r="G42">
-        <v>0.3928571428571428</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="H42">
-        <v>0.4642857142857143</v>
+        <v>0.25</v>
       </c>
       <c r="I42">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="J42">
         <v>0.5357142857142857</v>
       </c>
-      <c r="J42">
-        <v>0.4642857142857143</v>
-      </c>
       <c r="K42">
-        <v>0.5357142857142857</v>
+        <v>0.3214285714285715</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -8998,19 +8998,19 @@
         <v>0.25</v>
       </c>
       <c r="G43">
-        <v>0.6428571428571429</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="H43">
-        <v>0.5357142857142857</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I43">
-        <v>0.5357142857142857</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="J43">
-        <v>0.6071428571428571</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="K43">
-        <v>0.5357142857142857</v>
+        <v>0.3928571428571428</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -9033,19 +9033,19 @@
         <v>0.3214285714285715</v>
       </c>
       <c r="G44">
-        <v>0.25</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="H44">
         <v>0.2857142857142857</v>
       </c>
       <c r="I44">
-        <v>0.3928571428571428</v>
+        <v>0.25</v>
       </c>
       <c r="J44">
-        <v>0.4642857142857143</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="K44">
-        <v>0.3928571428571428</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -9068,19 +9068,19 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="G45">
-        <v>0.07142857142857142</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="H45">
-        <v>0.1071428571428571</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="I45">
-        <v>0.1071428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="J45">
-        <v>0.2142857142857143</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="K45">
-        <v>0.1071428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -9103,19 +9103,19 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="G46">
-        <v>0.6785714285714286</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="H46">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I46">
-        <v>0.7857142857142857</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="J46">
-        <v>0.75</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="K46">
-        <v>0.7857142857142857</v>
+        <v>0.3214285714285715</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -9138,19 +9138,19 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="G47">
-        <v>0.1071428571428571</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="H47">
-        <v>0.1428571428571428</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="I47">
-        <v>0.1071428571428571</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="J47">
-        <v>0.2857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="K47">
-        <v>0.1071428571428571</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -9173,19 +9173,19 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="G48">
-        <v>0.4642857142857143</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="H48">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I48">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="J48">
         <v>0.3928571428571428</v>
       </c>
-      <c r="I48">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="J48">
-        <v>0.4642857142857143</v>
-      </c>
       <c r="K48">
-        <v>0.3571428571428572</v>
+        <v>0.5357142857142857</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -9208,19 +9208,19 @@
         <v>0.1785714285714286</v>
       </c>
       <c r="G49">
-        <v>0.7857142857142857</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="H49">
-        <v>0.8928571428571429</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="I49">
-        <v>0.8571428571428571</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="J49">
-        <v>0.9642857142857143</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="K49">
-        <v>0.8571428571428571</v>
+        <v>0.1785714285714286</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -9243,19 +9243,19 @@
         <v>0.1785714285714286</v>
       </c>
       <c r="G50">
-        <v>0.5714285714285714</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="H50">
-        <v>0.75</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="I50">
-        <v>0.75</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="J50">
-        <v>0.8214285714285714</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K50">
-        <v>0.75</v>
+        <v>0.1071428571428571</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -9278,19 +9278,19 @@
         <v>0.8928571428571429</v>
       </c>
       <c r="G51">
-        <v>0.4642857142857143</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="H51">
-        <v>0.3928571428571428</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="I51">
-        <v>0.4642857142857143</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J51">
-        <v>0.5</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="K51">
-        <v>0.4642857142857143</v>
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -9313,16 +9313,16 @@
         <v>0.1785714285714286</v>
       </c>
       <c r="G52">
-        <v>0.25</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H52">
-        <v>0.1785714285714286</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I52">
         <v>0.1428571428571428</v>
       </c>
       <c r="J52">
-        <v>0.3571428571428572</v>
+        <v>0.25</v>
       </c>
       <c r="K52">
         <v>0.1428571428571428</v>
@@ -9348,19 +9348,19 @@
         <v>0.3928571428571428</v>
       </c>
       <c r="G53">
-        <v>0.1428571428571428</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H53">
-        <v>0.2142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="I53">
-        <v>0.3214285714285715</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="J53">
-        <v>0.3214285714285715</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="K53">
-        <v>0.3214285714285715</v>
+        <v>0.5357142857142857</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -9383,19 +9383,19 @@
         <v>0.5</v>
       </c>
       <c r="G54">
-        <v>0.1428571428571428</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="H54">
-        <v>0.1071428571428571</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="I54">
-        <v>0.1071428571428571</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="J54">
-        <v>0.1071428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K54">
-        <v>0.1071428571428571</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -9418,19 +9418,19 @@
         <v>0.3214285714285715</v>
       </c>
       <c r="G55">
-        <v>0.25</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="H55">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I55">
         <v>0.2142857142857143</v>
       </c>
-      <c r="I55">
-        <v>0.2857142857142857</v>
-      </c>
       <c r="J55">
-        <v>0.25</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="K55">
-        <v>0.2857142857142857</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -9453,19 +9453,19 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="G56">
-        <v>0.2857142857142857</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="H56">
-        <v>0.4642857142857143</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="I56">
-        <v>0.5</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="J56">
-        <v>0.5714285714285714</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="K56">
-        <v>0.5</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -9488,19 +9488,19 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="G57">
-        <v>0.5357142857142857</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="H57">
-        <v>0.6428571428571429</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="I57">
-        <v>0.5357142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="J57">
-        <v>0.7142857142857143</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="K57">
-        <v>0.5357142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -9523,19 +9523,19 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="G58">
-        <v>0.5714285714285714</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="H58">
-        <v>0.5357142857142857</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="I58">
-        <v>0.3928571428571428</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="J58">
-        <v>0.5714285714285714</v>
+        <v>0.75</v>
       </c>
       <c r="K58">
-        <v>0.3928571428571428</v>
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -9558,19 +9558,19 @@
         <v>0.5</v>
       </c>
       <c r="G59">
-        <v>0.2857142857142857</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="H59">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="I59">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="J59">
-        <v>0.5714285714285714</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="K59">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -9593,19 +9593,19 @@
         <v>0.5</v>
       </c>
       <c r="G60">
-        <v>0.4285714285714285</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="H60">
-        <v>0.5357142857142857</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="I60">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="J60">
-        <v>0.7142857142857143</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="K60">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -9628,19 +9628,19 @@
         <v>0.5</v>
       </c>
       <c r="G61">
-        <v>0.3571428571428572</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H61">
-        <v>0.25</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="I61">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="J61">
-        <v>0.4642857142857143</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="K61">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -9663,19 +9663,19 @@
         <v>0.5</v>
       </c>
       <c r="G62">
-        <v>0.3214285714285715</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="H62">
-        <v>0.3571428571428572</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="I62">
-        <v>0.25</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="J62">
-        <v>0.3571428571428572</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="K62">
-        <v>0.25</v>
+        <v>0.5357142857142857</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -9698,19 +9698,19 @@
         <v>0.7857142857142857</v>
       </c>
       <c r="G63">
+        <v>0.75</v>
+      </c>
+      <c r="H63">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="I63">
         <v>0.7142857142857143</v>
       </c>
-      <c r="H63">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="I63">
-        <v>0.6785714285714286</v>
-      </c>
       <c r="J63">
-        <v>0.6428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K63">
-        <v>0.6785714285714286</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -9733,19 +9733,19 @@
         <v>0.3928571428571428</v>
       </c>
       <c r="G64">
-        <v>0.5357142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="H64">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I64">
-        <v>0.5</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="J64">
-        <v>0.6071428571428571</v>
+        <v>0.25</v>
       </c>
       <c r="K64">
-        <v>0.5</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -9768,19 +9768,19 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="G65">
-        <v>0.3928571428571428</v>
+        <v>0.25</v>
       </c>
       <c r="H65">
-        <v>0.6428571428571429</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="I65">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="J65">
-        <v>0.75</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="K65">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -9803,19 +9803,19 @@
         <v>0.3214285714285715</v>
       </c>
       <c r="G66">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="H66">
         <v>0.4642857142857143</v>
       </c>
-      <c r="H66">
-        <v>0.5714285714285714</v>
-      </c>
       <c r="I66">
-        <v>0.6428571428571429</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="J66">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="K66">
         <v>0.6071428571428571</v>
-      </c>
-      <c r="K66">
-        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -9838,19 +9838,19 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="G67">
-        <v>0.1785714285714286</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H67">
-        <v>0.1428571428571428</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="I67">
-        <v>0.1428571428571428</v>
+        <v>0.25</v>
       </c>
       <c r="J67">
-        <v>0.2142857142857143</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="K67">
-        <v>0.1428571428571428</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -9873,19 +9873,19 @@
         <v>0.7857142857142857</v>
       </c>
       <c r="G68">
-        <v>0.1785714285714286</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H68">
-        <v>0.1428571428571428</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="I68">
-        <v>0.03571428571428571</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J68">
-        <v>0.2142857142857143</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="K68">
-        <v>0.03571428571428571</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -9908,7 +9908,7 @@
         <v>0.3928571428571428</v>
       </c>
       <c r="G69">
-        <v>0.6071428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H69">
         <v>0.5357142857142857</v>
@@ -9917,7 +9917,7 @@
         <v>0.6428571428571429</v>
       </c>
       <c r="J69">
-        <v>0.6785714285714286</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K69">
         <v>0.6428571428571429</v>
@@ -9943,16 +9943,16 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="G70">
-        <v>0.6785714285714286</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H70">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="I70">
         <v>0.7857142857142857</v>
       </c>
       <c r="J70">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="K70">
         <v>0.7857142857142857</v>
@@ -9978,19 +9978,19 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="G71">
-        <v>0.1428571428571428</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="H71">
-        <v>0.1785714285714286</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="I71">
-        <v>0.3214285714285715</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="J71">
-        <v>0.3928571428571428</v>
+        <v>0.25</v>
       </c>
       <c r="K71">
-        <v>0.3214285714285715</v>
+        <v>0.4642857142857143</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -10013,19 +10013,19 @@
         <v>0.1785714285714286</v>
       </c>
       <c r="G72">
-        <v>0.3214285714285715</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="H72">
-        <v>0.3928571428571428</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="I72">
-        <v>0.4285714285714285</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="J72">
-        <v>0.4285714285714285</v>
+        <v>0.25</v>
       </c>
       <c r="K72">
-        <v>0.4285714285714285</v>
+        <v>0.1071428571428571</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -10051,16 +10051,16 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="H73">
-        <v>0.4642857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="I73">
-        <v>0.6071428571428571</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="J73">
-        <v>0.6071428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K73">
-        <v>0.6071428571428571</v>
+        <v>0.3928571428571428</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -10083,19 +10083,19 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="G74">
-        <v>0.4642857142857143</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="H74">
-        <v>0.4642857142857143</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="I74">
-        <v>0.6785714285714286</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J74">
-        <v>0.6785714285714286</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="K74">
-        <v>0.6785714285714286</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -10118,19 +10118,19 @@
         <v>0.6785714285714286</v>
       </c>
       <c r="G75">
-        <v>0.3571428571428572</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="H75">
-        <v>0.4285714285714285</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="I75">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="J75">
-        <v>0.5</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="K75">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -10153,19 +10153,19 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="G76">
-        <v>0.3214285714285715</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="H76">
-        <v>0.4642857142857143</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="I76">
-        <v>0.5</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="J76">
-        <v>0.5357142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K76">
-        <v>0.5</v>
+        <v>0.6785714285714286</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -10188,19 +10188,19 @@
         <v>0.8214285714285714</v>
       </c>
       <c r="G77">
-        <v>0.5357142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H77">
-        <v>0.7142857142857143</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="I77">
-        <v>0.5714285714285714</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J77">
-        <v>0.7857142857142857</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="K77">
-        <v>0.5714285714285714</v>
+        <v>0.9642857142857143</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -10223,19 +10223,19 @@
         <v>0.1785714285714286</v>
       </c>
       <c r="G78">
-        <v>0.1785714285714286</v>
+        <v>0.25</v>
       </c>
       <c r="H78">
-        <v>0.1785714285714286</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="I78">
-        <v>0.1785714285714286</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="J78">
-        <v>0.25</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="K78">
-        <v>0.1785714285714286</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -10258,19 +10258,19 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="G79">
-        <v>0.3214285714285715</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="H79">
-        <v>0.2142857142857143</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="I79">
-        <v>0.3571428571428572</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="J79">
-        <v>0.3571428571428572</v>
+        <v>0.25</v>
       </c>
       <c r="K79">
-        <v>0.3571428571428572</v>
+        <v>0.1785714285714286</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -10296,16 +10296,16 @@
         <v>0.3214285714285715</v>
       </c>
       <c r="H80">
-        <v>0.3928571428571428</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="I80">
-        <v>0.3928571428571428</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="J80">
         <v>0.4285714285714285</v>
       </c>
       <c r="K80">
-        <v>0.3928571428571428</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -10328,19 +10328,19 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="G81">
-        <v>0.5714285714285714</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H81">
-        <v>0.6785714285714286</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I81">
-        <v>0.8571428571428571</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J81">
-        <v>0.7857142857142857</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="K81">
-        <v>0.8571428571428571</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -10363,19 +10363,19 @@
         <v>0.3928571428571428</v>
       </c>
       <c r="G82">
-        <v>0.3214285714285715</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="H82">
         <v>0.25</v>
       </c>
       <c r="I82">
-        <v>0.4642857142857143</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="J82">
-        <v>0.3571428571428572</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K82">
-        <v>0.4642857142857143</v>
+        <v>0.3928571428571428</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -10398,19 +10398,19 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="G83">
-        <v>0.1071428571428571</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="H83">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I83">
-        <v>0.1785714285714286</v>
+        <v>0.5</v>
       </c>
       <c r="J83">
-        <v>0.2142857142857143</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="K83">
-        <v>0.1785714285714286</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -10433,19 +10433,19 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="G84">
-        <v>0.1071428571428571</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="H84">
         <v>0.1785714285714286</v>
       </c>
       <c r="I84">
-        <v>0.1785714285714286</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="J84">
-        <v>0.25</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="K84">
-        <v>0.1785714285714286</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -10468,19 +10468,19 @@
         <v>0.6785714285714286</v>
       </c>
       <c r="G85">
-        <v>0.1428571428571428</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H85">
-        <v>0.25</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I85">
-        <v>0.2142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="J85">
-        <v>0.2857142857142857</v>
+        <v>0.75</v>
       </c>
       <c r="K85">
-        <v>0.2142857142857143</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -10506,13 +10506,13 @@
         <v>0.3928571428571428</v>
       </c>
       <c r="H86">
-        <v>0.4642857142857143</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="I86">
         <v>0.5357142857142857</v>
       </c>
       <c r="J86">
-        <v>0.4285714285714285</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="K86">
         <v>0.5357142857142857</v>
@@ -10538,19 +10538,19 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="G87">
-        <v>0.1071428571428571</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="H87">
-        <v>0.03571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I87">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="J87">
-        <v>0.1785714285714286</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="K87">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -10573,19 +10573,19 @@
         <v>0.8214285714285714</v>
       </c>
       <c r="G88">
-        <v>0.3571428571428572</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="H88">
-        <v>0.5714285714285714</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="I88">
-        <v>0.6071428571428571</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="J88">
-        <v>0.4642857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="K88">
-        <v>0.6071428571428571</v>
+        <v>0.6785714285714286</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -10608,19 +10608,19 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="G89">
-        <v>0.3928571428571428</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H89">
-        <v>0.4642857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="I89">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="J89">
-        <v>0.5357142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K89">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -10643,16 +10643,16 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="G90">
-        <v>0.4642857142857143</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="H90">
-        <v>0.4642857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="I90">
         <v>0.4285714285714285</v>
       </c>
       <c r="J90">
-        <v>0.4642857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="K90">
         <v>0.4285714285714285</v>
@@ -10684,13 +10684,13 @@
         <v>0.3928571428571428</v>
       </c>
       <c r="I91">
-        <v>0.3928571428571428</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="J91">
-        <v>0.4642857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K91">
-        <v>0.3928571428571428</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -10713,19 +10713,19 @@
         <v>0.3928571428571428</v>
       </c>
       <c r="G92">
+        <v>0.25</v>
+      </c>
+      <c r="H92">
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="I92">
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="J92">
         <v>0.6071428571428571</v>
       </c>
-      <c r="H92">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="I92">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="J92">
-        <v>0.5</v>
-      </c>
       <c r="K92">
-        <v>0.6428571428571429</v>
+        <v>0.1785714285714286</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -10748,19 +10748,19 @@
         <v>0.6071428571428571</v>
       </c>
       <c r="G93">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H93">
-        <v>0.6071428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I93">
-        <v>0.6428571428571429</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="J93">
-        <v>0.6428571428571429</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K93">
-        <v>0.6428571428571429</v>
+        <v>0.8214285714285714</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -10783,19 +10783,19 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="G94">
-        <v>0.3571428571428572</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="H94">
-        <v>0.3928571428571428</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I94">
-        <v>0.4285714285714285</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J94">
-        <v>0.5714285714285714</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="K94">
-        <v>0.4285714285714285</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -10818,19 +10818,19 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="G95">
-        <v>0.3928571428571428</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="H95">
-        <v>0.3928571428571428</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="I95">
-        <v>0.3928571428571428</v>
+        <v>0.5</v>
       </c>
       <c r="J95">
-        <v>0.3928571428571428</v>
+        <v>0.5</v>
       </c>
       <c r="K95">
-        <v>0.3928571428571428</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -10853,19 +10853,19 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="G96">
-        <v>0.3214285714285715</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="H96">
-        <v>0.2857142857142857</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="I96">
+        <v>0.1071428571428571</v>
+      </c>
+      <c r="J96">
         <v>0.2142857142857143</v>
       </c>
-      <c r="J96">
-        <v>0.4642857142857143</v>
-      </c>
       <c r="K96">
-        <v>0.2142857142857143</v>
+        <v>0.1071428571428571</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -10888,19 +10888,19 @@
         <v>0.25</v>
       </c>
       <c r="G97">
-        <v>0.3571428571428572</v>
+        <v>0.25</v>
       </c>
       <c r="H97">
-        <v>0.3928571428571428</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="I97">
-        <v>0.3928571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="J97">
-        <v>0.4642857142857143</v>
+        <v>0.25</v>
       </c>
       <c r="K97">
-        <v>0.3928571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -10923,19 +10923,19 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="G98">
-        <v>0.3571428571428572</v>
+        <v>0.25</v>
       </c>
       <c r="H98">
-        <v>0.3571428571428572</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I98">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="J98">
-        <v>0.5714285714285714</v>
+        <v>0.25</v>
       </c>
       <c r="K98">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -10958,19 +10958,19 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="G99">
-        <v>0.3214285714285715</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="H99">
-        <v>0.2857142857142857</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="I99">
-        <v>0.5</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="J99">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="K99">
         <v>0.4642857142857143</v>
-      </c>
-      <c r="K99">
-        <v>0.5</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -10993,19 +10993,19 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="G100">
-        <v>0.3214285714285715</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H100">
-        <v>0.3571428571428572</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="I100">
-        <v>0.5357142857142857</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="J100">
-        <v>0.5357142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="K100">
-        <v>0.5357142857142857</v>
+        <v>0.4642857142857143</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -11031,16 +11031,16 @@
         <v>0.3928571428571428</v>
       </c>
       <c r="H101">
-        <v>0.2857142857142857</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="I101">
-        <v>0.3214285714285715</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="J101">
-        <v>0.25</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="K101">
-        <v>0.3214285714285715</v>
+        <v>0.6785714285714286</v>
       </c>
     </row>
   </sheetData>
